--- a/Data Barcode.xlsx
+++ b/Data Barcode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\APA YA\JANUARI 2025\fashion-pos\fashion-pos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7073C47D-A202-4636-81CC-A0904417CC74}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F65F0F5C-1CB7-46AC-A105-BCEE78A7FA21}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" xr2:uid="{C959E6F6-51C6-4721-9145-B21F287AA8AE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>TEKS</t>
   </si>
@@ -40,9 +40,6 @@
   </si>
   <si>
     <t>HLXL6</t>
-  </si>
-  <si>
-    <t>KPTM7</t>
   </si>
 </sst>
 </file>
@@ -442,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73D40518-0508-44DB-90DF-AD3D9DD68374}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="83" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="46.2" x14ac:dyDescent="0.85"/>
@@ -476,7 +473,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="str">
-        <f t="shared" ref="B3:B5" si="0">"*"&amp;A3&amp;"*"</f>
+        <f t="shared" ref="B3:B4" si="0">"*"&amp;A3&amp;"*"</f>
         <v>*KDL5*</v>
       </c>
     </row>
@@ -489,17 +486,8 @@
         <v>*HLXL6*</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="40.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>*KPTM7*</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.85">
-      <c r="A6" s="5"/>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.85">
+      <c r="A5" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data Barcode.xlsx
+++ b/Data Barcode.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\APA YA\JANUARI 2025\fashion-pos\fashion-pos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JOKI\BULAN JANUARI 2025\fashion-pos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F65F0F5C-1CB7-46AC-A105-BCEE78A7FA21}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B979854A-45E4-477E-8FB9-33407E3AE32E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" xr2:uid="{C959E6F6-51C6-4721-9145-B21F287AA8AE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C959E6F6-51C6-4721-9145-B21F287AA8AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -110,17 +110,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -143,7 +139,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -441,53 +437,53 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73D40518-0508-44DB-90DF-AD3D9DD68374}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="83" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="46.2" x14ac:dyDescent="0.85"/>
+  <sheetFormatPr defaultRowHeight="46" x14ac:dyDescent="1"/>
   <cols>
-    <col min="1" max="1" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.36328125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:2" s="3" customFormat="1" ht="28.5" x14ac:dyDescent="0.65">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="40.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:2" ht="44.5" x14ac:dyDescent="0.85">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="str">
+      <c r="B2" s="2" t="str">
         <f>"*"&amp;A2&amp;"*"</f>
         <v>*KPM3*</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="40.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:2" ht="44.5" x14ac:dyDescent="0.85">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3" t="str">
+      <c r="B3" s="2" t="str">
         <f t="shared" ref="B3:B4" si="0">"*"&amp;A3&amp;"*"</f>
         <v>*KDL5*</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="40.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:2" ht="44.5" x14ac:dyDescent="0.85">
+      <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="3" t="str">
+      <c r="B4" s="2" t="str">
         <f t="shared" si="0"/>
         <v>*HLXL6*</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.85">
-      <c r="A5" s="5"/>
+    <row r="5" spans="1:2" x14ac:dyDescent="1">
+      <c r="A5" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
